--- a/src/main/resources/excel/1 - Job.xlsx
+++ b/src/main/resources/excel/1 - Job.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1 Job" sheetId="1" state="visible" r:id="rId3"/>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">ðɛr ɑr θri blɑks</t>
   </si>
   <si>
-    <t xml:space="preserve">hat’s right! Now, I’m going to add two more blocks</t>
+    <t xml:space="preserve">That’s right! Now, I’m going to add two more blocks</t>
   </si>
   <si>
     <t xml:space="preserve">¡Así es! Ahora, voy a agregar dos bloques más</t>
@@ -2015,23 +2015,7 @@
     <t xml:space="preserve">naʊ, ˈoʊnli ju kæn ˈoʊpən ɪt ænd ˌdɪˈsaɪd haʊ tu juz ðə tɔɪz, raɪt?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Right. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">In programming, encapsulation works the same way.</t>
-    </r>
+    <t xml:space="preserve">Right. In programming, encapsulation works the same way.</t>
   </si>
   <si>
     <t xml:space="preserve">Correcto. En programación, la encapsulación funciona de la misma manera.</t>
@@ -5254,7 +5238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5275,11 +5259,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5324,7 +5303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5334,10 +5313,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5466,8 +5441,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6965,18 +6940,18 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="93.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="113.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="80.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="113.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>314</v>
       </c>
       <c r="F1" s="1"/>
@@ -6985,10 +6960,10 @@
       <c r="A2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>317</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6999,10 +6974,10 @@
       <c r="A3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>320</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -7013,10 +6988,10 @@
       <c r="A4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -7027,10 +7002,10 @@
       <c r="A5" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -7041,10 +7016,10 @@
       <c r="A6" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>329</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -7055,24 +7030,24 @@
       <c r="A7" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -7083,10 +7058,10 @@
       <c r="A9" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>338</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -7097,10 +7072,10 @@
       <c r="A10" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>341</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -7111,10 +7086,10 @@
       <c r="A11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>344</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -7125,24 +7100,24 @@
       <c r="A12" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>347</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -7153,24 +7128,24 @@
       <c r="A14" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>356</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -7181,10 +7156,10 @@
       <c r="A16" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -7195,10 +7170,10 @@
       <c r="A17" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -7209,10 +7184,10 @@
       <c r="A18" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>365</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -7223,10 +7198,10 @@
       <c r="A19" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -7237,10 +7212,10 @@
       <c r="A20" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -7251,10 +7226,10 @@
       <c r="A21" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -7265,10 +7240,10 @@
       <c r="A22" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -7279,10 +7254,10 @@
       <c r="A23" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -7293,10 +7268,10 @@
       <c r="A24" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -7307,24 +7282,24 @@
       <c r="A25" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>386</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -7335,10 +7310,10 @@
       <c r="A27" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F27" s="1"/>
@@ -7347,10 +7322,10 @@
       <c r="A28" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -7361,10 +7336,10 @@
       <c r="A29" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>398</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -7375,10 +7350,10 @@
       <c r="A30" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -7389,10 +7364,10 @@
       <c r="A31" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -7403,10 +7378,10 @@
       <c r="A32" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>407</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -7417,10 +7392,10 @@
       <c r="A33" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>410</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -7431,10 +7406,10 @@
       <c r="A34" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>413</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -7445,24 +7420,24 @@
       <c r="A35" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>416</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>419</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -7473,10 +7448,10 @@
       <c r="A37" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -7487,10 +7462,10 @@
       <c r="A38" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>425</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -7501,10 +7476,10 @@
       <c r="A39" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>428</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -7515,10 +7490,10 @@
       <c r="A40" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>431</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -7529,10 +7504,10 @@
       <c r="A41" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>434</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -7543,10 +7518,10 @@
       <c r="A42" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>437</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -7557,10 +7532,10 @@
       <c r="A43" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>440</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -7571,24 +7546,24 @@
       <c r="A44" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>443</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>446</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -7599,10 +7574,10 @@
       <c r="A46" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -7613,10 +7588,10 @@
       <c r="A47" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>452</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -7627,10 +7602,10 @@
       <c r="A48" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>455</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -7641,10 +7616,10 @@
       <c r="A49" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>458</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -7655,24 +7630,24 @@
       <c r="A50" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>461</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>464</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -7683,10 +7658,10 @@
       <c r="A52" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>467</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -7697,10 +7672,10 @@
       <c r="A53" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>470</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -7711,24 +7686,24 @@
       <c r="A54" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>473</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>476</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -7739,24 +7714,24 @@
       <c r="A56" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>482</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -7767,10 +7742,10 @@
       <c r="A58" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F58" s="1"/>
@@ -7779,10 +7754,10 @@
       <c r="A59" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>488</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -7793,38 +7768,38 @@
       <c r="A60" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>491</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>494</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>497</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -7835,24 +7810,24 @@
       <c r="A63" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>500</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>503</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -7863,10 +7838,10 @@
       <c r="A65" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -7877,10 +7852,10 @@
       <c r="A66" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -7891,24 +7866,24 @@
       <c r="A67" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>512</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>515</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -7919,10 +7894,10 @@
       <c r="A69" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>518</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -7933,24 +7908,24 @@
       <c r="A70" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -7961,10 +7936,10 @@
       <c r="A72" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>527</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -7975,10 +7950,10 @@
       <c r="A73" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -7989,10 +7964,10 @@
       <c r="A74" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -8003,10 +7978,10 @@
       <c r="A75" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>536</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -8017,10 +7992,10 @@
       <c r="A76" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>539</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -8031,10 +8006,10 @@
       <c r="A77" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>542</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -8045,10 +8020,10 @@
       <c r="A78" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>545</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -8059,10 +8034,10 @@
       <c r="A79" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>548</v>
       </c>
       <c r="F79" s="1"/>
@@ -8071,10 +8046,10 @@
       <c r="A80" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>551</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -8085,10 +8060,10 @@
       <c r="A81" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>554</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -8099,10 +8074,10 @@
       <c r="A82" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>557</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -8113,10 +8088,10 @@
       <c r="A83" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>560</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -8127,10 +8102,10 @@
       <c r="A84" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>563</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -8141,24 +8116,24 @@
       <c r="A85" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>566</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>569</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -8169,10 +8144,10 @@
       <c r="A87" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>572</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -8183,10 +8158,10 @@
       <c r="A88" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -8197,10 +8172,10 @@
       <c r="A89" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -8211,10 +8186,10 @@
       <c r="A90" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>581</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -8225,10 +8200,10 @@
       <c r="A91" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>584</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -8239,10 +8214,10 @@
       <c r="A92" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>587</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -8253,10 +8228,10 @@
       <c r="A93" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -8267,10 +8242,10 @@
       <c r="A94" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -8281,10 +8256,10 @@
       <c r="A95" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>596</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -8295,10 +8270,10 @@
       <c r="A96" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>599</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -8309,10 +8284,10 @@
       <c r="A97" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>602</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -8323,10 +8298,10 @@
       <c r="A98" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>605</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -8337,10 +8312,10 @@
       <c r="A99" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>608</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -8351,24 +8326,24 @@
       <c r="A100" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>611</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>614</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -8379,10 +8354,10 @@
       <c r="A102" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>617</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -8393,10 +8368,10 @@
       <c r="A103" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>620</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -8407,10 +8382,10 @@
       <c r="A104" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>623</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -8421,10 +8396,10 @@
       <c r="A105" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>626</v>
       </c>
       <c r="F105" s="1"/>
@@ -8433,10 +8408,10 @@
       <c r="A106" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>629</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -8447,10 +8422,10 @@
       <c r="A107" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>632</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -8461,24 +8436,24 @@
       <c r="A108" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>635</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>638</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -8489,10 +8464,10 @@
       <c r="A110" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>641</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -8503,10 +8478,10 @@
       <c r="A111" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>644</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -8517,10 +8492,10 @@
       <c r="A112" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>647</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -8531,10 +8506,10 @@
       <c r="A113" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>650</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -8545,10 +8520,10 @@
       <c r="A114" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -8559,10 +8534,10 @@
       <c r="A115" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>656</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -8573,10 +8548,10 @@
       <c r="A116" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -8587,10 +8562,10 @@
       <c r="A117" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="1" t="s">
         <v>662</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -8601,10 +8576,10 @@
       <c r="A118" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="1" t="s">
         <v>665</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -8615,24 +8590,24 @@
       <c r="A119" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>668</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -8643,10 +8618,10 @@
       <c r="A121" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -8657,24 +8632,24 @@
       <c r="A122" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>677</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="1" t="s">
         <v>680</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -8685,24 +8660,24 @@
       <c r="A124" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="1" t="s">
         <v>683</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="1" t="s">
         <v>686</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -8713,10 +8688,10 @@
       <c r="A126" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="1" t="s">
         <v>689</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -8727,10 +8702,10 @@
       <c r="A127" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="1" t="s">
         <v>692</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -8741,10 +8716,10 @@
       <c r="A128" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="1" t="s">
         <v>695</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -8755,10 +8730,10 @@
       <c r="A129" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="1" t="s">
         <v>698</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -8769,10 +8744,10 @@
       <c r="A130" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="1" t="s">
         <v>701</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -8783,10 +8758,10 @@
       <c r="A131" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="1" t="s">
         <v>704</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -8797,10 +8772,10 @@
       <c r="A132" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="1" t="s">
         <v>707</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -8811,10 +8786,10 @@
       <c r="A133" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="1" t="s">
         <v>710</v>
       </c>
       <c r="F133" s="1"/>
@@ -8823,10 +8798,10 @@
       <c r="A134" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="1" t="s">
         <v>713</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -8837,10 +8812,10 @@
       <c r="A135" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="1" t="s">
         <v>716</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -8851,24 +8826,24 @@
       <c r="A136" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="1" t="s">
         <v>719</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="1" t="s">
         <v>722</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -8879,10 +8854,10 @@
       <c r="A138" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="1" t="s">
         <v>725</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -8893,24 +8868,24 @@
       <c r="A139" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="1" t="s">
         <v>728</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="1" t="s">
         <v>731</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -8921,10 +8896,10 @@
       <c r="A141" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -8935,24 +8910,24 @@
       <c r="A142" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="1" t="s">
         <v>740</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -8963,10 +8938,10 @@
       <c r="A144" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="1" t="s">
         <v>743</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -8977,10 +8952,10 @@
       <c r="A145" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="1" t="s">
         <v>746</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -8991,10 +8966,10 @@
       <c r="A146" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="1" t="s">
         <v>749</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -9005,10 +8980,10 @@
       <c r="A147" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="1" t="s">
         <v>752</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -9019,10 +8994,10 @@
       <c r="A148" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="1" t="s">
         <v>755</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -9033,24 +9008,24 @@
       <c r="A149" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="1" t="s">
         <v>758</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="1" t="s">
         <v>761</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -9061,10 +9036,10 @@
       <c r="A151" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -9075,24 +9050,24 @@
       <c r="A152" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="1" t="s">
         <v>767</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" s="1" t="s">
         <v>770</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -9103,10 +9078,10 @@
       <c r="A154" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" s="1" t="s">
         <v>773</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -9117,10 +9092,10 @@
       <c r="A155" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="1" t="s">
         <v>776</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -9151,31 +9126,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="101.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="118.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="96.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="101.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="118.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="96.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>779</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>782</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -9183,13 +9158,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>785</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -9197,13 +9172,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>788</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -9211,13 +9186,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>791</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -9225,13 +9200,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>794</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -9239,13 +9214,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>797</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -9253,13 +9228,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>800</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -9267,13 +9242,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>803</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -9281,13 +9256,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>806</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -9295,13 +9270,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>809</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -9309,13 +9284,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>812</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -9323,13 +9298,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>815</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -9337,13 +9312,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>818</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -9351,13 +9326,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>821</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -9365,13 +9340,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>824</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -9379,13 +9354,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>827</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -9393,13 +9368,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>830</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -9407,13 +9382,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>833</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -9421,13 +9396,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>836</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -9435,13 +9410,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>839</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -9449,13 +9424,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>842</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -9463,13 +9438,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>845</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -9477,13 +9452,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>848</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -9491,25 +9466,25 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>851</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>854</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -9517,13 +9492,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>857</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -9531,13 +9506,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>860</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -9545,13 +9520,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>863</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -9559,13 +9534,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>866</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -9573,13 +9548,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>869</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -9587,13 +9562,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>871</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -9601,13 +9576,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>644</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -9615,13 +9590,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>874</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -9629,13 +9604,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>877</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -9643,13 +9618,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>880</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -9657,13 +9632,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>883</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -9671,13 +9646,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>886</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -9685,13 +9660,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>889</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -9699,13 +9674,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>892</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -9713,13 +9688,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>895</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -9727,13 +9702,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>898</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -9741,13 +9716,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>901</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -9755,13 +9730,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>904</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -9769,13 +9744,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>907</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -9783,13 +9758,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>910</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -9797,13 +9772,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>913</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -9811,13 +9786,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>916</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -9825,13 +9800,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>919</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -9839,13 +9814,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>922</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -9853,25 +9828,25 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>925</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>928</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -9879,13 +9854,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>931</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -9893,13 +9868,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>934</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -9907,13 +9882,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>937</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -9921,13 +9896,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>940</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -9935,13 +9910,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>943</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -9949,13 +9924,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>946</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -9963,13 +9938,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>949</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -9977,13 +9952,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>952</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -9991,13 +9966,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>955</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -10005,13 +9980,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>958</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -10019,13 +9994,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>961</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -10033,13 +10008,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>964</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -10047,13 +10022,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>967</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -10061,13 +10036,13 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>970</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -10075,13 +10050,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>973</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -10089,13 +10064,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>976</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -10103,13 +10078,13 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>979</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -10117,13 +10092,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>982</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -10131,13 +10106,13 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>985</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -10145,13 +10120,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>988</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -10159,13 +10134,13 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>991</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -10173,13 +10148,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>994</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -10187,25 +10162,25 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>997</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>854</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -10213,13 +10188,13 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -10227,13 +10202,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -10241,13 +10216,13 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -10255,13 +10230,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -10269,13 +10244,13 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -10283,13 +10258,13 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -10297,13 +10272,13 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -10311,13 +10286,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>1021</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -10325,13 +10300,13 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -10339,13 +10314,13 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -10353,13 +10328,13 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -10367,13 +10342,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -10381,13 +10356,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -10395,13 +10370,13 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -10409,13 +10384,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -10423,13 +10398,13 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -10437,13 +10412,13 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -10451,13 +10426,13 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -10465,13 +10440,13 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -10479,13 +10454,13 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>1057</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -10493,13 +10468,13 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -10507,13 +10482,13 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>1063</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -10521,13 +10496,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -10558,32 +10533,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="113.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="129.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="112.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="113.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="129.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="112.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -10591,13 +10566,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -10605,13 +10580,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -10619,13 +10594,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -10633,13 +10608,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -10647,13 +10622,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -10661,13 +10636,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -10675,13 +10650,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -10689,13 +10664,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -10703,13 +10678,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -10717,13 +10692,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -10731,13 +10706,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -10745,13 +10720,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -10759,13 +10734,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -10773,13 +10748,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -10787,13 +10762,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -10801,13 +10776,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -10815,13 +10790,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -10829,13 +10804,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -10843,25 +10818,25 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -10869,13 +10844,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -10883,13 +10858,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -10897,13 +10872,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>1138</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -10911,13 +10886,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -10925,13 +10900,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -10939,13 +10914,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -10953,13 +10928,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -10967,13 +10942,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -10981,13 +10956,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -10995,13 +10970,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>1159</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -11009,13 +10984,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -11023,13 +10998,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>1165</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -11037,13 +11012,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -11051,13 +11026,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -11065,13 +11040,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>1174</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -11079,13 +11054,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -11093,13 +11068,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -11107,13 +11082,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -11121,13 +11096,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -11135,13 +11110,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>1189</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -11149,13 +11124,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -11163,13 +11138,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -11177,13 +11152,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -11191,13 +11166,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -11205,13 +11180,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>1204</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -11219,13 +11194,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -11233,13 +11208,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -11247,13 +11222,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -11261,25 +11236,25 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -11287,13 +11262,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -11301,13 +11276,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -11315,13 +11290,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -11329,13 +11304,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>1231</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -11343,13 +11318,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -11357,13 +11332,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -11371,13 +11346,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -11385,13 +11360,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -11399,13 +11374,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -11413,13 +11388,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -11427,13 +11402,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -11441,13 +11416,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>1255</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -11455,13 +11430,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -11469,13 +11444,13 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>1261</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -11483,13 +11458,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -11497,13 +11472,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -11511,13 +11486,13 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>1270</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -11525,13 +11500,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -11539,13 +11514,13 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -11553,13 +11528,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -11567,13 +11542,13 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -11581,13 +11556,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -11595,13 +11570,13 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>1288</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -11609,13 +11584,13 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -11623,13 +11598,13 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -11637,13 +11612,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -11651,13 +11626,13 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -11665,13 +11640,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -11679,25 +11654,25 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="F81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>1309</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -11705,13 +11680,13 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>1312</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -11719,13 +11694,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -11733,13 +11708,13 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>1318</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -11747,13 +11722,13 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>1321</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -11761,13 +11736,13 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -11775,13 +11750,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -11789,13 +11764,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -11803,13 +11778,13 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>1333</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -11817,13 +11792,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -11831,13 +11806,13 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>1339</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -11845,13 +11820,13 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>1342</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -11859,13 +11834,13 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -11873,13 +11848,13 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -11887,13 +11862,13 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -11901,13 +11876,13 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -11915,13 +11890,13 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -11929,13 +11904,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -11943,13 +11918,13 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>1363</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -11957,13 +11932,13 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -11971,13 +11946,13 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>1369</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -11985,13 +11960,13 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -11999,13 +11974,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -12013,13 +11988,13 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>1378</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -12044,37 +12019,37 @@
   </sheetPr>
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F124" activeCellId="0" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="104.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="104.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="84.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>1381</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>1384</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -12082,13 +12057,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>1387</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -12096,13 +12071,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>1390</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -12110,13 +12085,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>1393</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -12124,13 +12099,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -12138,13 +12113,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>1399</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -12152,13 +12127,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -12166,13 +12141,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>1405</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -12180,13 +12155,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -12194,13 +12169,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -12208,13 +12183,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -12222,13 +12197,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>1417</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -12236,13 +12211,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -12250,13 +12225,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -12264,13 +12239,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -12278,13 +12253,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -12292,13 +12267,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -12306,13 +12281,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -12320,13 +12295,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -12334,13 +12309,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>1441</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -12348,13 +12323,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>1444</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -12362,13 +12337,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>1447</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -12376,13 +12351,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>1450</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -12390,13 +12365,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -12404,25 +12379,25 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -12430,13 +12405,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -12444,13 +12419,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -12458,13 +12433,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>1468</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -12472,13 +12447,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -12486,13 +12461,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -12500,13 +12475,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -12514,13 +12489,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>1480</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -12528,13 +12503,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>1483</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -12542,13 +12517,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -12556,13 +12531,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -12570,13 +12545,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -12584,13 +12559,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>1495</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -12598,13 +12573,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>1498</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -12612,13 +12587,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>1501</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -12626,13 +12601,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -12640,13 +12615,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>1507</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -12654,13 +12629,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>1510</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -12668,13 +12643,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>1513</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -12682,13 +12657,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -12696,13 +12671,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -12710,13 +12685,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -12724,13 +12699,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -12738,13 +12713,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>1528</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -12752,13 +12727,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -12766,13 +12741,13 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -12780,13 +12755,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>1537</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -12794,13 +12769,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -12808,25 +12783,25 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>857</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -12834,13 +12809,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>860</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -12848,13 +12823,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -12862,13 +12837,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -12876,13 +12851,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -12890,13 +12865,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -12904,13 +12879,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -12918,13 +12893,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -12932,13 +12907,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>1560</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -12946,13 +12921,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -12960,13 +12935,13 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>1566</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -12974,13 +12949,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -12988,13 +12963,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -13002,13 +12977,13 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>1575</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -13016,13 +12991,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -13030,13 +13005,13 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -13044,13 +13019,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -13058,13 +13033,13 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -13072,13 +13047,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -13086,25 +13061,25 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>1596</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -13112,27 +13087,27 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>1599</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>1602</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -13140,13 +13115,13 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -13154,13 +13129,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -13168,13 +13143,13 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -13182,13 +13157,13 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -13196,13 +13171,13 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -13210,13 +13185,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>1620</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -13224,13 +13199,13 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>1623</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -13238,13 +13213,13 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>1626</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -13252,13 +13227,13 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -13266,13 +13241,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>1632</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -13280,13 +13255,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>1635</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -13294,13 +13269,13 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>1638</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -13308,13 +13283,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>1641</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -13322,13 +13297,13 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>1644</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -13336,13 +13311,13 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>1647</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -13350,13 +13325,13 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>1649</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>1650</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -13364,13 +13339,13 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>1653</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -13378,13 +13353,13 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>1656</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -13392,13 +13367,13 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>1659</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -13406,25 +13381,25 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>1662</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>1665</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -13432,13 +13407,13 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>1668</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -13446,13 +13421,13 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>1671</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -13460,13 +13435,13 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>1674</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -13474,13 +13449,13 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>1677</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -13488,13 +13463,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -13502,13 +13477,13 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>1683</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -13516,13 +13491,13 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>1685</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>1686</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -13530,13 +13505,13 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>1689</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -13544,13 +13519,13 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>1692</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -13558,13 +13533,13 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>1695</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -13572,13 +13547,13 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>1698</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -13586,13 +13561,13 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>1701</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -13600,13 +13575,13 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>1703</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>1704</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -13614,13 +13589,13 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>1707</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -13628,13 +13603,13 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>1710</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -13642,13 +13617,13 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>1713</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -13656,13 +13631,13 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>1716</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -13670,13 +13645,13 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="1" t="s">
         <v>1719</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -13684,13 +13659,13 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="1" t="s">
         <v>1722</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -13698,13 +13673,13 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>1725</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -13712,13 +13687,13 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="1" t="s">
         <v>1728</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -13726,13 +13701,13 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="1" t="s">
         <v>1731</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -13740,13 +13715,13 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>1734</v>
       </c>
       <c r="F122" s="1" t="s">
